--- a/Assets/Excels/Battle/CardInfo.xlsx
+++ b/Assets/Excels/Battle/CardInfo.xlsx
@@ -21,54 +21,7 @@
     <author>ShengZhiXiang</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ShengZhiXiang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是否是阵营卡牌
-是填1，不是填0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ShengZhiXiang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-所属阵营的ID
-没有填0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -130,12 +83,6 @@
     <t>SpritePath</t>
   </si>
   <si>
-    <t>isCampCard</t>
-  </si>
-  <si>
-    <t>BelongCampID</t>
-  </si>
-  <si>
     <t>FuncEnum</t>
   </si>
   <si>
@@ -215,6 +162,42 @@
   </si>
   <si>
     <t>ATTACK_DICE_ROLL</t>
+  </si>
+  <si>
+    <t>原子弹</t>
+  </si>
+  <si>
+    <t>Sprite/Card/USACardBG</t>
+  </si>
+  <si>
+    <t>ATOMIC_BOMB</t>
+  </si>
+  <si>
+    <t>战时共产</t>
+  </si>
+  <si>
+    <t>Sprite/Card/SovietCardBG</t>
+  </si>
+  <si>
+    <t>COMMUNIST</t>
+  </si>
+  <si>
+    <t>闪电战</t>
+  </si>
+  <si>
+    <t>Sprite/Card/GermanyCardBG</t>
+  </si>
+  <si>
+    <t>BLITZ</t>
+  </si>
+  <si>
+    <t>军国主义</t>
+  </si>
+  <si>
+    <t>Sprite/Card/JapanCardBG</t>
+  </si>
+  <si>
+    <t>MILITARISM</t>
   </si>
 </sst>
 </file>
@@ -222,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -236,16 +219,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +287,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,8 +317,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,78 +355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,13 +383,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +455,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,157 +539,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,11 +577,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,69 +674,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -699,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,28 +1179,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.55555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,185 +1226,253 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>3001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>3002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
       <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3003</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3004</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
       <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3005</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>4001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="1">
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>5001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>6001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>7001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excels/Battle/CardInfo.xlsx
+++ b/Assets/Excels/Battle/CardInfo.xlsx
@@ -67,12 +67,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌效果类型
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -101,6 +124,9 @@
     <t>SelfCard</t>
   </si>
   <si>
+    <t>CardEffectType</t>
+  </si>
+  <si>
     <t>空袭</t>
   </si>
   <si>
@@ -116,6 +142,9 @@
     <t>IMMEDIATELY</t>
   </si>
   <si>
+    <t>BombOtherCamp</t>
+  </si>
+  <si>
     <t>加固防御</t>
   </si>
   <si>
@@ -128,6 +157,9 @@
     <t>DEFENCE_END_POINT</t>
   </si>
   <si>
+    <t>DefenceOwnWeakLand</t>
+  </si>
+  <si>
     <t>全民皆兵</t>
   </si>
   <si>
@@ -164,6 +196,9 @@
     <t>ATTACK_DICE_ROLL</t>
   </si>
   <si>
+    <t>AttackOwnStrongLand</t>
+  </si>
+  <si>
     <t>原子弹</t>
   </si>
   <si>
@@ -180,6 +215,9 @@
   </si>
   <si>
     <t>COMMUNIST</t>
+  </si>
+  <si>
+    <t>CampBuff</t>
   </si>
   <si>
     <t>闪电战</t>
@@ -205,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -220,6 +258,119 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -229,9 +380,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,121 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,19 +421,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +535,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,127 +595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,35 +615,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,8 +657,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,32 +712,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -682,145 +720,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1196,9 +1234,10 @@
     <col min="7" max="7" width="12.4444444444444" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.6666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,164 +1265,182 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>3001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>3002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>3005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>4001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -1392,24 +1449,27 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>5001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
@@ -1418,24 +1478,27 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>6001</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -1444,24 +1507,27 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>7001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
@@ -1470,10 +1536,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
